--- a/auto/new_data/9_2_Non-ferrous_LME-Aluminium.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Aluminium.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>33458</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>14870</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>44238</t>
+          <t>88364</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>5002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10435</t>
+          <t>63289</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39226</t>
+          <t>93135</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>78800</t>
+          <t>31284</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89825</t>
+          <t>64112</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>36431</t>
+          <t>25090</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>64743</t>
+          <t>49836</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23411</t>
+          <t>16535</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47153</t>
+          <t>85509</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17414</t>
+          <t>5047</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>65495</t>
+          <t>23523</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21387</t>
+          <t>26861</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Aluminium.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Aluminium.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>80427</t>
+          <t>21234</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14870</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>88364</t>
+          <t>38106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5002</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>63289</t>
+          <t>19693</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93135</t>
+          <t>85839</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31284</t>
+          <t>38489</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64112</t>
+          <t>68464</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25090</t>
+          <t>42174</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49836</t>
+          <t>48865</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16535</t>
+          <t>27533</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85509</t>
+          <t>92188</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5047</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23523</t>
+          <t>21659</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>8178</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26861</t>
+          <t>29550</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Aluminium.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Aluminium.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21234</t>
+          <t>17433</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6304</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>38106</t>
+          <t>32740</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19693</t>
+          <t>10737</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85839</t>
+          <t>52880</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>38489</t>
+          <t>13230</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68464</t>
+          <t>56675</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42174</t>
+          <t>23834</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48865</t>
+          <t>102757</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27533</t>
+          <t>10672</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92188</t>
+          <t>31114</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21659</t>
+          <t>37669</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8178</t>
+          <t>801</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29550</t>
+          <t>25235</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
